--- a/SDET1.xlsx
+++ b/SDET1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="14400" windowHeight="6420"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15585" windowHeight="6420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:P20"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>admin</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>12345</t>
+  </si>
+  <si>
+    <t>QSPHYD</t>
   </si>
 </sst>
 </file>
@@ -372,7 +375,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -412,10 +415,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/SDET1.xlsx
+++ b/SDET1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="15585" windowHeight="6420" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15585" windowHeight="6420" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>admin</t>
   </si>
@@ -41,13 +41,40 @@
   </si>
   <si>
     <t>QSPHYD</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Rathish</t>
+  </si>
+  <si>
+    <t>Sandeep</t>
+  </si>
+  <si>
+    <t>Shruthi</t>
+  </si>
+  <si>
+    <t>Mouli</t>
+  </si>
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>TC_ID</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>Org</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -55,16 +82,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -72,13 +113,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,7 +474,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -431,12 +490,82 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="4"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="4"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/SDET1.xlsx
+++ b/SDET1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="15585" windowHeight="6420" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15450" windowHeight="6420" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:P20"/>
+  <oleSize ref="A1:O20"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>admin</t>
   </si>
@@ -46,28 +46,43 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Rathish</t>
-  </si>
-  <si>
-    <t>Sandeep</t>
-  </si>
-  <si>
-    <t>Shruthi</t>
-  </si>
-  <si>
-    <t>Mouli</t>
-  </si>
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>TC_ID</t>
-  </si>
-  <si>
-    <t>Contact</t>
-  </si>
-  <si>
-    <t>Org</t>
+    <t>Sr.no</t>
+  </si>
+  <si>
+    <t>Salary</t>
+  </si>
+  <si>
+    <t>Ram</t>
+  </si>
+  <si>
+    <t>Sham</t>
+  </si>
+  <si>
+    <t>Nithesh</t>
+  </si>
+  <si>
+    <t>Prakash</t>
+  </si>
+  <si>
+    <t>Sumit</t>
+  </si>
+  <si>
+    <t>Kalpesh</t>
+  </si>
+  <si>
+    <t>110000</t>
+  </si>
+  <si>
+    <t>80000</t>
+  </si>
+  <si>
+    <t>50000</t>
+  </si>
+  <si>
+    <t>55000</t>
+  </si>
+  <si>
+    <t>48000</t>
   </si>
 </sst>
 </file>
@@ -132,12 +147,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -435,7 +451,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -493,76 +509,88 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C4" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="C5" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="4"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="4"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="4"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="4"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="4"/>
+      <c r="C6" s="5" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="4" t="s">
-        <v>12</v>
+      <c r="A7" s="4">
+        <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="4"/>
+      <c r="C7" s="5" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
